--- a/Excel/IDList.xlsx
+++ b/Excel/IDList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C452A2E-64F3-4F9D-8097-09759743F9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63ED82-C3AA-4F36-8309-7F6C95950487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>Wood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GuideRail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoalRail</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6819B6-EDD7-4758-B048-D8EF18E4432F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -487,19 +495,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>11</v>
       </c>
     </row>

--- a/Excel/IDList.xlsx
+++ b/Excel/IDList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63ED82-C3AA-4F36-8309-7F6C95950487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF93A805-E431-4EE9-95F9-51903427BAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>GoalRail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Air</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Air </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -455,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6819B6-EDD7-4758-B048-D8EF18E4432F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -527,6 +543,62 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/IDList.xlsx
+++ b/Excel/IDList.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF93A805-E431-4EE9-95F9-51903427BAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CB9D73-5A19-42D9-A727-E7D091113BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
+    <workbookView xWindow="54420" yWindow="0" windowWidth="3285" windowHeight="15585" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +87,13 @@
   </si>
   <si>
     <t xml:space="preserve">Air </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grass(不可)</t>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -471,13 +478,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6819B6-EDD7-4758-B048-D8EF18E4432F}">
-  <dimension ref="A1:B19"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -597,6 +609,14 @@
       </c>
       <c r="B19">
         <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/IDList.xlsx
+++ b/Excel/IDList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CB9D73-5A19-42D9-A727-E7D091113BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3C8881-D888-4E10-9C60-17E1E6E53F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54420" yWindow="0" windowWidth="3285" windowHeight="15585" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
+    <workbookView xWindow="18912" yWindow="0" windowWidth="4224" windowHeight="12336" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>Water</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Air</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -482,16 +478,16 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -499,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -507,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -515,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -523,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -531,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -539,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -547,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -555,23 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -579,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -587,7 +567,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -595,15 +575,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -611,9 +591,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>121</v>

--- a/Excel/IDList.xlsx
+++ b/Excel/IDList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3C8881-D888-4E10-9C60-17E1E6E53F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAE1C6F-01D0-446A-A5E3-4836130770E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18912" yWindow="0" windowWidth="4224" windowHeight="12336" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
+    <workbookView xWindow="28680" yWindow="-9165" windowWidth="16440" windowHeight="28320" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -90,6 +90,14 @@
     <rPh sb="6" eb="8">
       <t>フカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnRock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Air</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -477,17 +485,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -495,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -503,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -511,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -519,7 +527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -527,7 +535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -535,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -543,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -551,7 +559,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -559,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -567,7 +599,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -575,7 +607,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -583,7 +615,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -591,7 +623,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Excel/IDList.xlsx
+++ b/Excel/IDList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAE1C6F-01D0-446A-A5E3-4836130770E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F143A7-B223-4B1E-BB5B-4FC5895B6024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9165" windowWidth="16440" windowHeight="28320" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
+    <workbookView xWindow="2304" yWindow="720" windowWidth="11544" windowHeight="12240" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>Air</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Station</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -486,16 +490,16 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -503,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -511,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -519,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -527,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -535,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -543,47 +547,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -591,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -599,7 +611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -607,7 +619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -615,7 +627,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -623,7 +635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Excel/IDList.xlsx
+++ b/Excel/IDList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F143A7-B223-4B1E-BB5B-4FC5895B6024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437BC6AD-8BB3-46F6-981C-93B6920C05E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="720" windowWidth="11544" windowHeight="12240" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
+    <workbookView xWindow="28680" yWindow="-9000" windowWidth="16440" windowHeight="28320" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>Station</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StartRail</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -489,17 +493,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -507,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -515,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -523,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -531,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -539,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -547,55 +551,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10">
         <v>13</v>
       </c>
-      <c r="B10">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -603,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -611,7 +623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -619,7 +631,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -627,7 +639,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -635,7 +647,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Excel/IDList.xlsx
+++ b/Excel/IDList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437BC6AD-8BB3-46F6-981C-93B6920C05E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9208D-9BFE-40AE-9FC2-FB405A53A4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9000" windowWidth="16440" windowHeight="28320" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>StartRail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gear</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -491,10 +495,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6819B6-EDD7-4758-B048-D8EF18E4432F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -593,65 +597,73 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>121</v>
       </c>
     </row>

--- a/Excel/IDList.xlsx
+++ b/Excel/IDList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9208D-9BFE-40AE-9FC2-FB405A53A4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF492CE3-A7B6-4FA6-B79B-CDF0C0F3D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -110,6 +110,14 @@
   </si>
   <si>
     <t>Gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerStart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerEnd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -495,10 +503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6819B6-EDD7-4758-B048-D8EF18E4432F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -619,51 +627,67 @@
         <v>31</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>101</v>
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>121</v>
       </c>
     </row>

--- a/Excel/IDList.xlsx
+++ b/Excel/IDList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF492CE3-A7B6-4FA6-B79B-CDF0C0F3D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE067A5E-0219-4AAD-8CD6-43EC74BF2243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6DC31025-3B3F-498C-9FFA-138E73755AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>PlayerEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrawRail</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -503,19 +507,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6819B6-EDD7-4758-B048-D8EF18E4432F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -523,7 +527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -531,7 +535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -539,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -547,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -555,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -563,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -571,123 +575,139 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>121</v>
       </c>
     </row>
